--- a/curation/package12/R12_BC_Edits.xlsx
+++ b/curation/package12/R12_BC_Edits.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD3034-ACB7-483E-9C53-40E07F5E342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF1ADA3-EE46-4496-9123-193C6A66BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18A89C13-B655-9647-BB64-C0D5BA3E4A4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{18A89C13-B655-9647-BB64-C0D5BA3E4A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_EDITS" sheetId="2" r:id="rId1"/>
+    <sheet name="BC_EDITS2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_EDITS!$A$1:$R$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BC_EDITS2!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="256">
   <si>
     <t>datetime</t>
   </si>
@@ -675,6 +677,138 @@
   </si>
   <si>
     <t>An analysis of all the genes in an organism or cell type; this includes assays that identify variants, examine gene expression and determine the interactions of genes with each other and with the environment.</t>
+  </si>
+  <si>
+    <t>C112221</t>
+  </si>
+  <si>
+    <t>Immunology Tests;Immunodiagnostic Procedure;Skin Response</t>
+  </si>
+  <si>
+    <t>ASRINDEX</t>
+  </si>
+  <si>
+    <t>The ratio measurement of the allergen wheal size to the positive control wheal size in an allergen skin test.</t>
+  </si>
+  <si>
+    <t>C82546</t>
+  </si>
+  <si>
+    <t>Observation Object</t>
+  </si>
+  <si>
+    <t>C112222</t>
+  </si>
+  <si>
+    <t>ASRINT</t>
+  </si>
+  <si>
+    <t>Quantitative;Nominal</t>
+  </si>
+  <si>
+    <t>The semiquantitative assessment of the wheal-and-flare index that measures the intensity of the reaction.</t>
+  </si>
+  <si>
+    <t>C112281</t>
+  </si>
+  <si>
+    <t>Flare Longest Diameter;FLRLDIAM</t>
+  </si>
+  <si>
+    <t>C42578</t>
+  </si>
+  <si>
+    <t>Unit of Length</t>
+  </si>
+  <si>
+    <t>mm;cm;in</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>C112282</t>
+  </si>
+  <si>
+    <t>Flare Mean Diameter;FLRMDIAM</t>
+  </si>
+  <si>
+    <t>C112283</t>
+  </si>
+  <si>
+    <t>Flare Size;FLARESZ</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Large;Medium;Small</t>
+  </si>
+  <si>
+    <t>C112429</t>
+  </si>
+  <si>
+    <t>Diagnostic Procedure;Skin Response</t>
+  </si>
+  <si>
+    <t>WHEALSZ</t>
+  </si>
+  <si>
+    <t>Allergen Skin Response Index Measurement</t>
+  </si>
+  <si>
+    <t>Allergen Skin Response Intensity Measurement</t>
+  </si>
+  <si>
+    <t>Antigenic Skin Flare Longest Diameter Measurement</t>
+  </si>
+  <si>
+    <t>Antigenic Skin Flare Mean Diameter Measurement</t>
+  </si>
+  <si>
+    <t>Antigenic Skin Flare Size Measurement</t>
+  </si>
+  <si>
+    <t>Wheal Size Measurement</t>
+  </si>
+  <si>
+    <t>The determination of the longest diameter for the area of redness that forms around the site of an antigenic challenge to the skin.</t>
+  </si>
+  <si>
+    <t>The determination of the mean diameter for the area of redness that forms around the site of an antigenic challenge to the skin.</t>
+  </si>
+  <si>
+    <t>The determination of the size of the area of redness that forms around the site of an antigenic challenge to the skin.</t>
+  </si>
+  <si>
+    <t>The determination of the size of the flat, circular, slightly raised area that forms around the site of an antigenic challenge to the skin.</t>
+  </si>
+  <si>
+    <t>Oncology Standards; Laboratory Tests; Immunology Tests; Genetic Testing; Gene Expression Analysis; Gene Products; Genetic Variation; Genetic Variation Analysis; Breast Cancer TAUG</t>
+  </si>
+  <si>
+    <t>C177692</t>
+  </si>
+  <si>
+    <t>Expression Positive</t>
+  </si>
+  <si>
+    <t>An indication that the expression of a gene, transcript or protein has been detected in a sample.</t>
+  </si>
+  <si>
+    <t>Positive; Negative</t>
+  </si>
+  <si>
+    <t>C117062</t>
+  </si>
+  <si>
+    <t>Measurement, Test or Examination Detail</t>
+  </si>
+  <si>
+    <t>Overall Status</t>
+  </si>
+  <si>
+    <t>Tissue; Blood</t>
   </si>
 </sst>
 </file>
@@ -784,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -800,6 +934,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,7 +1278,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
@@ -4418,28 +4558,2187 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EC3DA4-5A43-4E7D-8226-2FEABC339FBD}">
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="41" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="84.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="60.28515625" style="7" customWidth="1"/>
+    <col min="10" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="36.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="7"/>
+    <col min="17" max="17" width="46.28515625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="27.140625" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" s="6" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R1" xr:uid="{6AB0AA2E-4D93-4985-9F1F-B4425F77C199}"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112221" xr:uid="{21DF4FA7-40E6-4CAC-B6F2-24361B47CC69}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{F00D6218-C204-4417-8B84-E2EF4B670222}"/>
+    <hyperlink ref="N2" r:id="rId3" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82546" xr:uid="{861E15BA-B2B6-4EB9-9066-4155676369C5}"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112221" xr:uid="{C75EA6EA-16E7-4DBF-8061-5EA70966AEC8}"/>
+    <hyperlink ref="E3" r:id="rId5" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{35A520C4-12F8-4092-83FF-DBB3CFAEBE81}"/>
+    <hyperlink ref="N3" r:id="rId6" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{0359FC38-7FBB-4CFF-8DF2-4579EADF4C1B}"/>
+    <hyperlink ref="D4" r:id="rId7" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112221" xr:uid="{BC6C1C69-572D-4742-923A-29426287A1A4}"/>
+    <hyperlink ref="E4" r:id="rId8" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{A9EF735C-F28B-4EBB-A859-F1C8591B627A}"/>
+    <hyperlink ref="N4" r:id="rId9" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{BD67317D-3DFE-4029-8F13-15FE2AB9B04D}"/>
+    <hyperlink ref="D5" r:id="rId10" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112221" xr:uid="{35A9132A-11F0-427F-8301-E62CD829044A}"/>
+    <hyperlink ref="E5" r:id="rId11" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{BC61E275-94C4-44F7-8462-C32E8763197F}"/>
+    <hyperlink ref="N5" r:id="rId12" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{90742138-9552-4605-8882-5A2E7C671950}"/>
+    <hyperlink ref="D6" r:id="rId13" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112221" xr:uid="{BB1F04B5-63CC-42E0-B81E-495E6E80798E}"/>
+    <hyperlink ref="E6" r:id="rId14" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{02545290-9841-4DC6-B436-B3141DF99829}"/>
+    <hyperlink ref="N6" r:id="rId15" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{E8CF5928-315C-42DF-9500-369F2A2DF204}"/>
+    <hyperlink ref="D7" r:id="rId16" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112221" xr:uid="{CA456F88-504F-433F-B4DC-3A434AB47C37}"/>
+    <hyperlink ref="E7" r:id="rId17" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{8F89732E-7B10-45A6-95B7-1DA0AFF2BCB9}"/>
+    <hyperlink ref="N7" r:id="rId18" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{11A2C973-ACEC-4ECE-806C-CAD3BCFDBE0A}"/>
+    <hyperlink ref="D8" r:id="rId19" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112222" xr:uid="{A075C006-7E86-44EC-8D6F-9C03B87EEF81}"/>
+    <hyperlink ref="E8" r:id="rId20" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{7FECB6D0-D7ED-4770-AB4E-4867C961800A}"/>
+    <hyperlink ref="N8" r:id="rId21" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82546" xr:uid="{14D75720-B5F7-4873-8D75-7801BE6D4BA6}"/>
+    <hyperlink ref="D9" r:id="rId22" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112222" xr:uid="{2DDF256F-2FEA-481F-9418-1B9F15F15386}"/>
+    <hyperlink ref="E9" r:id="rId23" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{083093E3-725F-4A1E-82BB-C4906349ECF5}"/>
+    <hyperlink ref="N9" r:id="rId24" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{630513F9-01DD-44A7-A0C8-EAC4879ABF8B}"/>
+    <hyperlink ref="D10" r:id="rId25" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112222" xr:uid="{1BCEF4AC-C4BC-4D20-8AB4-7918D066B517}"/>
+    <hyperlink ref="E10" r:id="rId26" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{EBC8B115-4691-4421-9177-99C6A569670A}"/>
+    <hyperlink ref="N10" r:id="rId27" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{78BCE579-158E-4636-B098-9F0E37179828}"/>
+    <hyperlink ref="D11" r:id="rId28" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112222" xr:uid="{EDAB2194-57B8-49F0-8FE2-7A57F5D84075}"/>
+    <hyperlink ref="E11" r:id="rId29" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{D368E445-4AC2-46B1-A675-4467551B89CD}"/>
+    <hyperlink ref="N11" r:id="rId30" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{4C75D5E1-9B22-44F3-AB3D-E84329B113CD}"/>
+    <hyperlink ref="D12" r:id="rId31" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112222" xr:uid="{8A442FF8-FA1B-4FC3-97CD-7F66261FC9F5}"/>
+    <hyperlink ref="E12" r:id="rId32" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{A795B2A3-BB5F-4FEB-87AE-585E971D9618}"/>
+    <hyperlink ref="N12" r:id="rId33" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{A68E6D3C-51EB-4E6F-9A9F-F4996EC0DF46}"/>
+    <hyperlink ref="D13" r:id="rId34" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112222" xr:uid="{21B40B2E-5AE3-4692-84ED-4FE189825C73}"/>
+    <hyperlink ref="E13" r:id="rId35" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{858E795E-6E57-4DAE-9E71-45C69BCE1075}"/>
+    <hyperlink ref="N13" r:id="rId36" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{56A8FC30-6BBA-42D4-B7F5-D309FCB5B3B6}"/>
+    <hyperlink ref="D14" r:id="rId37" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{FC008D38-E442-4135-9B50-27A675F0DD5C}"/>
+    <hyperlink ref="E14" r:id="rId38" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{CF42EDAB-3F95-42FD-B725-4F4BDC73515F}"/>
+    <hyperlink ref="N14" r:id="rId39" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82546" xr:uid="{D02BD6B8-F202-4ED9-A715-F9A2778898A8}"/>
+    <hyperlink ref="D15" r:id="rId40" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{577F5F80-5007-4D0C-819E-EC59EF81D378}"/>
+    <hyperlink ref="E15" r:id="rId41" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{5AA63688-8808-421B-AF45-D89EBA40F480}"/>
+    <hyperlink ref="N15" r:id="rId42" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{97B7831A-82F9-466B-AF09-0F450313AED2}"/>
+    <hyperlink ref="D16" r:id="rId43" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{148712FE-2F64-4CDB-80CD-11CA263AE3B4}"/>
+    <hyperlink ref="E16" r:id="rId44" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{D8B75491-062E-41A0-9839-173F544AFC10}"/>
+    <hyperlink ref="N16" r:id="rId45" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{A5ABBDD9-64C5-4C7A-85EF-87335A7FA0EB}"/>
+    <hyperlink ref="D17" r:id="rId46" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{2B6B4007-8A9E-4E63-A07D-B56CB724205F}"/>
+    <hyperlink ref="E17" r:id="rId47" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{FE55A3AF-8541-414A-A29C-BF60EAFFC478}"/>
+    <hyperlink ref="N17" r:id="rId48" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{018FEC84-12CE-4EAA-AEA3-E13426B93CC7}"/>
+    <hyperlink ref="D18" r:id="rId49" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{59599488-6050-494F-9AA6-001CC33BE5D7}"/>
+    <hyperlink ref="E18" r:id="rId50" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{C4DEB583-80DC-4503-AC36-2DA4580492D2}"/>
+    <hyperlink ref="N18" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{5D2332CE-EA23-4B27-8A05-73959CE57C35}"/>
+    <hyperlink ref="D19" r:id="rId52" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{6F4769B1-AF05-4F46-8DD3-FFA7A8EC27C4}"/>
+    <hyperlink ref="E19" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{EEB2C935-7CA3-4F4E-818C-6714F38E6A75}"/>
+    <hyperlink ref="N19" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{1F89194E-4C99-488B-B998-8AABE0E6F494}"/>
+    <hyperlink ref="D20" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112281" xr:uid="{7ECB4883-210C-4115-A6B7-B67C3DD431CE}"/>
+    <hyperlink ref="E20" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{C4C189A4-2630-420F-9B1F-C87874C354B2}"/>
+    <hyperlink ref="N20" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{799C66EB-986F-4A5F-ADA1-5408A2CE0806}"/>
+    <hyperlink ref="D21" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{943411B2-760D-43CD-9D65-C39692957906}"/>
+    <hyperlink ref="E21" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{6E4C5ABA-71AD-43A1-ACBD-4A438D1DB503}"/>
+    <hyperlink ref="N21" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82546" xr:uid="{53F1811E-764C-4B0B-B4A4-CDB9D8D03A27}"/>
+    <hyperlink ref="D22" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{AA4A14E6-B60C-4EE9-89AA-1520158EFA49}"/>
+    <hyperlink ref="E22" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{C84E049D-8AAF-4E0E-9032-870B0F2CBB94}"/>
+    <hyperlink ref="N22" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{8A1349FA-029F-438A-95E5-86794CFC9E54}"/>
+    <hyperlink ref="D23" r:id="rId64" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{D05A82A4-824E-441F-A27F-9839E4245916}"/>
+    <hyperlink ref="E23" r:id="rId65" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{D516E573-A393-4695-A67D-9CDC5CCD415E}"/>
+    <hyperlink ref="N23" r:id="rId66" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C42578" xr:uid="{E7FC5C13-7903-4191-A797-264431158D68}"/>
+    <hyperlink ref="D24" r:id="rId67" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{B6DC47D6-909B-4217-959E-BEDD7935ADEB}"/>
+    <hyperlink ref="E24" r:id="rId68" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{046F8ED9-69EF-4BB9-9B5A-6A768DC77662}"/>
+    <hyperlink ref="N24" r:id="rId69" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{B1B9A6A5-B703-428C-907B-86FC1AADF810}"/>
+    <hyperlink ref="D25" r:id="rId70" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{DAEE82BC-A6F8-416A-A237-0445C25C0E17}"/>
+    <hyperlink ref="E25" r:id="rId71" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{BFBC3F1D-7185-4877-89CB-145313F44EEF}"/>
+    <hyperlink ref="N25" r:id="rId72" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{2981FA53-DD0D-44D3-9F2D-2B329237003E}"/>
+    <hyperlink ref="D26" r:id="rId73" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{080A5B5B-7D53-4BCD-A98F-C8B710FF23E4}"/>
+    <hyperlink ref="E26" r:id="rId74" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{671D89A1-5FA0-4229-B0D9-1273DAD393C7}"/>
+    <hyperlink ref="N26" r:id="rId75" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{C9092FB0-3E6A-4A63-8390-08AD089417C6}"/>
+    <hyperlink ref="D27" r:id="rId76" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112282" xr:uid="{30B600ED-9B2C-4C33-8CB1-1C2FFB358605}"/>
+    <hyperlink ref="E27" r:id="rId77" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{9AC27DDA-D93B-413E-A937-EBCCE9FC5DE2}"/>
+    <hyperlink ref="N27" r:id="rId78" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{B4B975AC-7B0F-438A-8FBE-DC16E73F9810}"/>
+    <hyperlink ref="D28" r:id="rId79" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112283" xr:uid="{A6E931B8-F544-405B-AD71-DE826C24B048}"/>
+    <hyperlink ref="E28" r:id="rId80" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{C174528D-88DC-4D55-BF19-CFFA84F8644E}"/>
+    <hyperlink ref="N28" r:id="rId81" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82546" xr:uid="{16EAC3B8-2D31-4B76-B052-6C47807737B5}"/>
+    <hyperlink ref="D29" r:id="rId82" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112283" xr:uid="{464D1DD5-BFA7-4626-A386-E1E26946A503}"/>
+    <hyperlink ref="E29" r:id="rId83" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{AD37A5E8-E127-466B-9326-3BBA6A6238F2}"/>
+    <hyperlink ref="N29" r:id="rId84" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{EF7C4197-CF74-428B-96C9-81E14B7599A6}"/>
+    <hyperlink ref="D30" r:id="rId85" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112283" xr:uid="{7F0DE2BB-8A12-4974-9A0F-1E37FECE902D}"/>
+    <hyperlink ref="E30" r:id="rId86" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{41F27818-A5BB-4BF6-B68D-C818C93B0887}"/>
+    <hyperlink ref="N30" r:id="rId87" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{D6EF93FB-CE36-45DF-BB4A-E563B77B7240}"/>
+    <hyperlink ref="D31" r:id="rId88" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112283" xr:uid="{B6D1E58B-F997-4066-A6F0-6124168B487F}"/>
+    <hyperlink ref="E31" r:id="rId89" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{8D622A76-69BD-43A0-890F-76D55BB3CFC8}"/>
+    <hyperlink ref="N31" r:id="rId90" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{3C53FEDF-E2F6-48A5-A58A-6B0709DA8457}"/>
+    <hyperlink ref="D32" r:id="rId91" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112283" xr:uid="{748BBA9E-95D9-41AF-9A31-6F9AF1136610}"/>
+    <hyperlink ref="E32" r:id="rId92" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{2B1F058A-A267-4377-A55F-E846B8126181}"/>
+    <hyperlink ref="N32" r:id="rId93" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{99D2FD23-89BB-4482-BEB4-CC93EA667A0B}"/>
+    <hyperlink ref="D33" r:id="rId94" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112283" xr:uid="{5466FF03-6A7D-49B3-8623-7DD28C876514}"/>
+    <hyperlink ref="E33" r:id="rId95" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{2CFBA688-7359-4F69-9825-0C185C34F6C7}"/>
+    <hyperlink ref="N33" r:id="rId96" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{E391331F-5ECC-4D2E-A168-DA88EA372268}"/>
+    <hyperlink ref="D34" r:id="rId97" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112429" xr:uid="{960300A1-E407-4ABE-B18D-70DC0786388D}"/>
+    <hyperlink ref="E34" r:id="rId98" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{752DDC8F-CC36-43DA-A8FE-C9F63E6332DD}"/>
+    <hyperlink ref="N34" r:id="rId99" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82546" xr:uid="{13E65B93-4ABB-4542-BA23-F516F8D3D7B7}"/>
+    <hyperlink ref="D35" r:id="rId100" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112429" xr:uid="{0781E010-BB29-4300-AE34-4EA87D40AEF3}"/>
+    <hyperlink ref="E35" r:id="rId101" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{91809CA6-584B-40F4-8B1A-1CD428B5D038}"/>
+    <hyperlink ref="N35" r:id="rId102" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70856" xr:uid="{51762A90-6AB4-461A-B695-BC89E7865063}"/>
+    <hyperlink ref="D36" r:id="rId103" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112429" xr:uid="{0EA4EA9C-B8B2-4110-8950-0A15656AE721}"/>
+    <hyperlink ref="E36" r:id="rId104" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{7B2C7778-6144-4FD4-BDD3-C624E3A4574B}"/>
+    <hyperlink ref="N36" r:id="rId105" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C13717" xr:uid="{DE5FB866-9F5E-4756-A6F0-CAB4971FB308}"/>
+    <hyperlink ref="D37" r:id="rId106" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112429" xr:uid="{C1E9D736-C85E-4977-96BF-95A0AFBA6AB6}"/>
+    <hyperlink ref="E37" r:id="rId107" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{EDE9B0AB-A901-4325-85BE-97E290DE7929}"/>
+    <hyperlink ref="N37" r:id="rId108" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25185" xr:uid="{9E63F905-995A-4944-A3FD-251CCB406004}"/>
+    <hyperlink ref="D38" r:id="rId109" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112429" xr:uid="{7D8482CF-CBCC-4539-A284-C765073C5C25}"/>
+    <hyperlink ref="E38" r:id="rId110" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{AFF3DF73-83CD-4847-8D28-2D45136B6255}"/>
+    <hyperlink ref="N38" r:id="rId111" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82535" xr:uid="{55050C53-177F-4656-B424-63D06B28BE0A}"/>
+    <hyperlink ref="D39" r:id="rId112" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C112429" xr:uid="{C4D0AF48-ED63-493C-8A57-42DB31C2AA7B}"/>
+    <hyperlink ref="E39" r:id="rId113" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C15260" xr:uid="{D33BC0B2-0393-4D7F-B41E-831091681B9C}"/>
+    <hyperlink ref="N39" r:id="rId114" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{789895EE-76A2-4295-89E1-98CBC60C46BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -4696,26 +6995,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A000D3F-3F90-45B5-9D7C-D2C7DE326891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98045FF-7E65-40A4-902F-DCD465F8E01D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FF024F8-5909-4030-ADA0-1E89C002B995}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4732,4 +7033,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A000D3F-3F90-45B5-9D7C-D2C7DE326891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98045FF-7E65-40A4-902F-DCD465F8E01D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>